--- a/artfynd/A 56968-2025 artfynd.xlsx
+++ b/artfynd/A 56968-2025 artfynd.xlsx
@@ -1126,7 +1126,7 @@
         <v>129914632</v>
       </c>
       <c r="B6" t="n">
-        <v>57893</v>
+        <v>57897</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         <v>131034108</v>
       </c>
       <c r="B7" t="n">
-        <v>91762</v>
+        <v>91766</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>131034178</v>
       </c>
       <c r="B8" t="n">
-        <v>91861</v>
+        <v>91865</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>131034122</v>
       </c>
       <c r="B9" t="n">
-        <v>92404</v>
+        <v>92408</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/artfynd/A 56968-2025 artfynd.xlsx
+++ b/artfynd/A 56968-2025 artfynd.xlsx
@@ -1244,7 +1244,7 @@
         <v>131034108</v>
       </c>
       <c r="B7" t="n">
-        <v>91766</v>
+        <v>91767</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>131034178</v>
       </c>
       <c r="B8" t="n">
-        <v>91865</v>
+        <v>91866</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>131034122</v>
       </c>
       <c r="B9" t="n">
-        <v>92408</v>
+        <v>92409</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/artfynd/A 56968-2025 artfynd.xlsx
+++ b/artfynd/A 56968-2025 artfynd.xlsx
@@ -1244,7 +1244,7 @@
         <v>131034108</v>
       </c>
       <c r="B7" t="n">
-        <v>91767</v>
+        <v>91768</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>131034178</v>
       </c>
       <c r="B8" t="n">
-        <v>91866</v>
+        <v>91867</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>131034122</v>
       </c>
       <c r="B9" t="n">
-        <v>92409</v>
+        <v>92410</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>

--- a/artfynd/A 56968-2025 artfynd.xlsx
+++ b/artfynd/A 56968-2025 artfynd.xlsx
@@ -1234,7 +1234,7 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Magnus Kasselstrand, Ingvor Kasselstrand</t>
+          <t>Ingvor Kasselstrand, Magnus Kasselstrand</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
@@ -1244,7 +1244,7 @@
         <v>131034108</v>
       </c>
       <c r="B7" t="n">
-        <v>91768</v>
+        <v>91771</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>131034178</v>
       </c>
       <c r="B8" t="n">
-        <v>91867</v>
+        <v>91870</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1463,7 +1463,7 @@
         <v>131034122</v>
       </c>
       <c r="B9" t="n">
-        <v>92410</v>
+        <v>92413</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
